--- a/marks.xlsx
+++ b/marks.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20388"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC613E92-F979-40F0-B8C9-07B109086B5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="sheetMe" r:id="rId5" sheetId="2"/>
+    <sheet name="sheetMe" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,16 +21,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>abc</t>
   </si>
+  <si>
+    <t>test</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,31 +343,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>9</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>